--- a/training.xlsx
+++ b/training.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\بطاقة تهنئة اونلاين\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{270E268C-58C2-4272-A055-BC1FB2077F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27653A55-9827-4F99-91BC-2915BCFEAE0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -129,10 +129,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="عادي" xfId="0" builtinId="0"/>
@@ -446,11 +446,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -477,24 +477,24 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>1234567890</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>9876543201</v>
       </c>
       <c r="B3" t="s">
@@ -506,11 +506,12 @@
       <c r="D3">
         <v>2022</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>